--- a/Excel Prep Course/Advanced_Excel_Practice_Templates.xlsx
+++ b/Excel Prep Course/Advanced_Excel_Practice_Templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teitelbaumsair/Desktop/DI_Bootcamp/Excel Prep Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42464880-793B-DF41-A368-6F6FB039FFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A231A270-8370-FA42-AE63-057DBE45374F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,9 @@
     <sheet name="Automated Report" sheetId="12" r:id="rId13"/>
     <sheet name="KPI Dashboard" sheetId="13" r:id="rId14"/>
   </sheets>
+  <definedNames>
+    <definedName name="Feedback" localSheetId="0">'Exercise Explanations'!$A$64</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4632,6 +4635,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="131.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
